--- a/FileOutput/Hybridreults.xlsx
+++ b/FileOutput/Hybridreults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Liveproject\ERP_hybrid_StockAccounting\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6A09C5B2-C803-4E34-8046-DB3535EEA14D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8BA39155-DC6B-444D-BA54-D51026E5CB03}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="13896" windowWidth="23256" xWindow="-108" xr2:uid="{295DEF63-B58F-40DC-859C-6D26F030B969}" yWindow="-108"/>
+    <workbookView activeTab="2" windowHeight="13896" windowWidth="23256" xWindow="-108" xr2:uid="{295DEF63-B58F-40DC-859C-6D26F030B969}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -188,10 +188,76 @@
     <t>Dashboard « Stock Accounting</t>
   </si>
   <si>
+    <t>//a[starts-with(text(),'Stock Items ')]</t>
+  </si>
+  <si>
+    <t>wait for stockitems</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>Wait for category name</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Category_Name']</t>
+  </si>
+  <si>
+    <t>Enter category name</t>
+  </si>
+  <si>
+    <t>purifier by sasi</t>
+  </si>
+  <si>
+    <t>Click on Add button</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for confirm ok button</t>
+  </si>
+  <si>
+    <t>wait for alert ok button</t>
+  </si>
+  <si>
+    <t>//div[@class='ajs-header']</t>
+  </si>
+  <si>
+    <t>Click on ok button</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Validate category table</t>
+  </si>
+  <si>
+    <t>Close App browser</t>
+  </si>
+  <si>
+    <t>mouseClick</t>
+  </si>
+  <si>
+    <t>Mouse click to stock items</t>
+  </si>
+  <si>
+    <t>categoryTable</t>
+  </si>
+  <si>
+    <t>(//a[@data-original-title='Add'])[1]</t>
+  </si>
+  <si>
+    <t>wait for add button</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -199,7 +265,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,211 +315,235 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -529,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
@@ -547,6 +637,7 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -585,6 +676,10 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -902,7 +997,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="44">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="12">
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="3" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -949,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="45">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="50">
+        <v>72</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="4" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -965,8 +1060,8 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="46">
-        <v>50</v>
+      <c r="D4" t="s" s="51">
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="5" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -979,8 +1074,8 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="47">
-        <v>50</v>
+      <c r="D5" t="s" s="52">
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="6" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -993,8 +1088,8 @@
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="48">
-        <v>50</v>
+      <c r="D6" t="s" s="53">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1007,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8DAF5F-DCFB-452C-B25A-AE1E48A9D87E}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,9 +1151,7 @@
       <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="11">
-        <v>49</v>
-      </c>
+      <c r="F2" s="6"/>
     </row>
     <row customHeight="1" ht="19.2" r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1076,9 +1169,7 @@
       <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="13">
-        <v>49</v>
-      </c>
+      <c r="F3" s="7"/>
     </row>
     <row customHeight="1" ht="19.2" r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -1096,9 +1187,7 @@
       <c r="E4" s="9">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="15">
-        <v>49</v>
-      </c>
+      <c r="F4" s="9"/>
     </row>
     <row customHeight="1" ht="19.2" r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -1116,9 +1205,7 @@
       <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="17">
-        <v>49</v>
-      </c>
+      <c r="F5" s="10"/>
     </row>
     <row customHeight="1" ht="19.2" r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -1136,9 +1223,7 @@
       <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s" s="19">
-        <v>49</v>
-      </c>
+      <c r="F6" s="10"/>
     </row>
     <row customHeight="1" ht="19.2" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1156,9 +1241,7 @@
       <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s" s="21">
-        <v>49</v>
-      </c>
+      <c r="F7" s="10"/>
     </row>
     <row customHeight="1" ht="19.2" r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -1176,9 +1259,7 @@
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="23">
-        <v>49</v>
-      </c>
+      <c r="F8" s="10"/>
     </row>
     <row customHeight="1" ht="19.2" r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -1196,9 +1277,7 @@
       <c r="E9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s" s="25">
-        <v>49</v>
-      </c>
+      <c r="F9" s="10"/>
     </row>
     <row customHeight="1" ht="19.2" r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1216,9 +1295,7 @@
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s" s="27">
-        <v>49</v>
-      </c>
+      <c r="F10" s="10"/>
     </row>
     <row customHeight="1" ht="19.2" r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -1236,9 +1313,7 @@
       <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s" s="29">
-        <v>49</v>
-      </c>
+      <c r="F11" s="10"/>
     </row>
     <row customHeight="1" ht="19.2" r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -1246,9 +1321,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" t="s" s="31">
-        <v>49</v>
-      </c>
+      <c r="F12" s="8"/>
     </row>
     <row customHeight="1" ht="19.2" r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
@@ -1256,9 +1329,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" t="s" s="33">
-        <v>49</v>
-      </c>
+      <c r="F13" s="8"/>
     </row>
     <row customHeight="1" ht="19.2" r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
@@ -1266,9 +1337,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" t="s" s="35">
-        <v>49</v>
-      </c>
+      <c r="F14" s="8"/>
     </row>
     <row customHeight="1" ht="19.2" r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -1276,9 +1345,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" t="s" s="37">
-        <v>49</v>
-      </c>
+      <c r="F15" s="8"/>
     </row>
     <row customHeight="1" ht="19.2" r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
@@ -1286,9 +1353,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" t="s" s="39">
-        <v>49</v>
-      </c>
+      <c r="F16" s="8"/>
     </row>
     <row customHeight="1" ht="19.2" r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -1296,9 +1361,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" t="s" s="41">
-        <v>49</v>
-      </c>
+      <c r="F17" s="8"/>
     </row>
     <row customHeight="1" ht="19.2" r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -1306,9 +1369,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" t="s" s="43">
-        <v>49</v>
-      </c>
+      <c r="F18" s="8"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1318,13 +1379,425 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511E9A88-8880-47E8-AF09-0489ADD51FD0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.21875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="58.88671875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="18" r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.4" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="17">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="19">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.399999999999999" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="25">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s" s="27">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="29">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="31">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="33">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s" s="35">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="10">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="39">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s" s="41">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="43">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s" s="45">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s" s="47">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="15.6" r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s" s="49">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/FileOutput/Hybridreults.xlsx
+++ b/FileOutput/Hybridreults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Liveproject\ERP_hybrid_StockAccounting\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8BA39155-DC6B-444D-BA54-D51026E5CB03}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CFF0E8B8-5292-40EC-A7BE-995224B86FAE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="13896" windowWidth="23256" xWindow="-108" xr2:uid="{295DEF63-B58F-40DC-859C-6D26F030B969}" yWindow="-108"/>
+    <workbookView activeTab="1" windowHeight="13896" windowWidth="23256" xWindow="-108" xr2:uid="{295DEF63-B58F-40DC-859C-6D26F030B969}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="117">
   <si>
     <t>TCID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -254,10 +251,145 @@
     <t>wait for add button</t>
   </si>
   <si>
+    <t>Wait for suppliers link</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Click on suppliers link</t>
+  </si>
+  <si>
+    <t>Wait for Add button</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add button </t>
+  </si>
+  <si>
+    <t>wait for supplier number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Supplier name </t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>Capture supplier number</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t>Enter Phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Enter mobilenumber</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>sasi</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>some notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait for confirm ok button </t>
+  </si>
+  <si>
+    <t>click on confirm add button</t>
+  </si>
+  <si>
+    <t>(//button[contains(.,'OK')])[6]</t>
+  </si>
+  <si>
+    <t>click on alert ok button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate supplier table </t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Close app browser</t>
+  </si>
+  <si>
+    <t>captureSnumber</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t>Blocked</t>
-  </si>
-  <si>
-    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -265,7 +397,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="119" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,241 +447,667 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -619,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
@@ -680,6 +1238,77 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -997,7 +1626,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,10 +1659,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s" s="12">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="45">
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="3" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1044,10 +1673,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="50">
-        <v>72</v>
+        <v>112</v>
+      </c>
+      <c r="D3" t="s" s="65">
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="4" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1058,10 +1687,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="51">
-        <v>71</v>
+        <v>112</v>
+      </c>
+      <c r="D4" t="s" s="122">
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="5" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1072,10 +1701,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="52">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="D5" t="s" s="123">
+        <v>116</v>
       </c>
     </row>
     <row customFormat="1" ht="18" r="6" s="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1086,10 +1715,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="53">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="D6" t="s" s="124">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1102,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8DAF5F-DCFB-452C-B25A-AE1E48A9D87E}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,19 +1746,19 @@
   <sheetData>
     <row customFormat="1" ht="21" r="1" s="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1137,183 +1766,203 @@
     </row>
     <row customHeight="1" ht="19.2" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="12">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="14">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="9">
         <v>10</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" t="s" s="16">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="18">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="F6" t="s" s="20">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="22">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" t="s" s="24">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="F9" t="s" s="26">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="28">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="30">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -1321,7 +1970,9 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" t="s" s="32">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
@@ -1329,7 +1980,9 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" t="s" s="34">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
@@ -1337,7 +1990,9 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" t="s" s="36">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -1345,7 +2000,9 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" t="s" s="38">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
@@ -1353,7 +2010,9 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" t="s" s="40">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -1361,7 +2020,9 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="F17" t="s" s="42">
+        <v>114</v>
+      </c>
     </row>
     <row customHeight="1" ht="19.2" r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -1369,7 +2030,9 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" t="s" s="44">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1381,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511E9A88-8880-47E8-AF09-0489ADD51FD0}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,19 +2060,19 @@
   <sheetData>
     <row ht="18" r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
@@ -1417,383 +2080,367 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s" s="13">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="46">
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="23.4" r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="15">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="48">
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="21" r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="17">
-        <v>72</v>
+      <c r="F4" t="s" s="50">
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s" s="19">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="52">
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="21.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s" s="21">
-        <v>72</v>
+      <c r="F6" t="s" s="54">
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="20.399999999999999" r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s" s="23">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="56">
+        <v>114</v>
       </c>
     </row>
     <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="25">
-        <v>72</v>
+      <c r="F8" t="s" s="58">
+        <v>114</v>
       </c>
     </row>
     <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s" s="27">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="60">
+        <v>114</v>
       </c>
     </row>
     <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="10">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="29">
-        <v>72</v>
+      <c r="F10" t="s" s="62">
+        <v>114</v>
       </c>
     </row>
     <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s" s="31">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="64">
+        <v>114</v>
       </c>
     </row>
     <row ht="15.6" r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="E12" s="10">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="33">
-        <v>72</v>
+      <c r="F12" t="s" s="66">
+        <v>115</v>
       </c>
     </row>
     <row ht="15.6" r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s" s="35">
-        <v>72</v>
-      </c>
+      <c r="F13" s="10"/>
     </row>
     <row ht="15.6" r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s" s="37">
-        <v>72</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row ht="15.6" r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="10">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="39">
-        <v>72</v>
-      </c>
+      <c r="F15" s="10"/>
     </row>
     <row ht="15.6" r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s" s="41">
-        <v>72</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F16" s="10"/>
     </row>
     <row ht="15.6" r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="E17" s="10">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="43">
-        <v>72</v>
-      </c>
+      <c r="F17" s="10"/>
     </row>
     <row ht="15.6" r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s" s="45">
-        <v>72</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row ht="15.6" r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s" s="47">
-        <v>72</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F19" s="10"/>
     </row>
     <row ht="15.6" r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s" s="49">
-        <v>72</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1803,13 +2450,604 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EA7F61-7C1E-4428-8269-7F1D47464321}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.33203125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.44140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.88671875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="18" r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="67">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="69">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="71">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="73">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="75">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="77">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="79">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="81">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="83">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="85">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="87">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="89">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s" s="91">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s" s="93">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s" s="95">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s" s="97">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s" s="99">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4327575</v>
+      </c>
+      <c r="F19" t="s" s="101">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s" s="103">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4365475</v>
+      </c>
+      <c r="F21" t="s" s="105">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s" s="107">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="109">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="10">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="111">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="113">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="10">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="115">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s" s="117">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s" s="119">
+        <v>114</v>
+      </c>
+    </row>
+    <row ht="15.6" r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="121">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
